--- a/Promedios réplicas todo/Entropías.xlsx
+++ b/Promedios réplicas todo/Entropías.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="112">
   <si>
     <t>H(dY) =  [3.6868265, 2.9523029, 3.32463, 3.0725625, 3.6999002, 2.5636001, 2.611618, 3.1162422]</t>
   </si>
@@ -107,78 +107,6 @@
     <t>​</t>
   </si>
   <si>
-    <t>H(dY) =  [3.0426457, 2.2455781, 3.3926775, 2.2579639, 2.8373368, 2.5135345, 2.5653386, 2.8198614]</t>
-  </si>
-  <si>
-    <t>H(dY|dlogOD) =  [2.1400664, 1.4097252, 2.3827207, 1.2113509, 2.3317425, 2.0905225, 1.8640571, 1.6784286]</t>
-  </si>
-  <si>
-    <t>H(dY|dC) =  [1.5686808, 1.3189023, 1.304939, 1.0087821, 1.3414214, 1.4559321, 1.3625252, 1.5713167]</t>
-  </si>
-  <si>
-    <t>H(dY|dR) =  [1.4800208, 1.1434586, 1.3421361, 1.1461475, 1.2145388, 1.395226, 1.1543987, 1.373919]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dlogOD) =  [1.1143045, 0.97693491, 0.99505377, 0.74829292, 0.93853617, 1.0722437, 0.99143887, 1.0407004]</t>
-  </si>
-  <si>
-    <t>H(dY|dR,dlogOD) =  [1.0248566, 0.74641275, 1.0213232, 0.76984358, 0.86462879, 1.0434861, 0.85319376, 0.81096458]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR) =  [1.187129, 0.77943087, 1.0633602, 0.75325632, 1.0123749, 0.92562103, 0.98450875, 0.84766912]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR,dlogOD) =  [0.79261637, 0.52115679, 0.75323963, 0.54185486, 0.62923717, 0.63848209, 0.65560627, 0.54704809]</t>
-  </si>
-  <si>
-    <t>H(dR) =  [2.9739578, 2.1373327, 3.0699084, 2.0024226, 3.0520742, 2.3510573, 2.654752, 2.6027961]</t>
-  </si>
-  <si>
-    <t>H(dR|dlogOD) =  [2.155288, 1.3965473, 2.099406, 1.1449893, 2.5426047, 1.9284692, 1.8646059, 1.5176127]</t>
-  </si>
-  <si>
-    <t>H(dR|dC) =  [1.4876437, 1.3413975, 1.0601242, 0.95908308, 1.3742979, 1.4463215, 1.19735, 1.4159753]</t>
-  </si>
-  <si>
-    <t>H(dR|dY) =  [1.4113324, 1.0352135, 1.0193667, 0.89060593, 1.429276, 1.2327487, 1.2438118, 1.1568539]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dlogOD) =  [1.1032743, 0.97185469, 0.77808332, 0.73455715, 1.1094513, 1.0297494, 0.96233892, 0.96529102]</t>
-  </si>
-  <si>
-    <t>H(dR|dY,dlogOD) =  [1.0400777, 0.73323441, 0.73800802, 0.70348167, 1.075491, 0.88143253, 0.85374308, 0.65014887]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY) =  [1.1060915, 0.80192566, 0.81854534, 0.70355797, 1.0452514, 0.91601038, 0.81933403, 0.69232798]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY,dlogOD) =  [0.78158712, 0.51607656, 0.53626966, 0.52811909, 0.80015278, 0.59598732, 0.62650633, 0.47163868]</t>
-  </si>
-  <si>
-    <t>H(dC) =  [2.7296205, 2.3892562, 2.3892562, 2.4532175, 2.9778261, 2.7318983, 2.596554, 2.6329646]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [1.9072201, 1.3824434, 2.1201608, 1.4592671, 2.4154975, 2.3478849, 1.6711903, 1.3879154]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [1.4876437, 1.3413975, 1.0601242, 0.95908308, 1.3742979, 1.4463215, 1.19735, 1.4159753]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [1.2556555, 1.4625807, 1.0329769, 1.204035, 1.4819109, 1.6742954, 1.3937404, 1.3844204]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.88145828, 0.94965363, 0.73249531, 0.99620914, 1.0222912, 1.3296056, 0.79857254, 0.7501874]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.85520744, 0.95775127, 0.79883957, 1.0488348, 0.98234415, 1.4491649, 0.76892328, 0.83559322]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.95041466, 1.2292931, 0.83215475, 1.0169876, 1.0978856, 1.3575566, 0.96926212, 0.91989398]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.62296772, 0.73249578, 0.53075695, 0.82084703, 0.74695349, 1.0441613, 0.57133532, 0.57167625]</t>
-  </si>
-  <si>
     <t>H(dY) =  [3.3249848, 3.0725625, 3.4138663, 3.5538678, 3.2261755, 3.1159847, 3.276247, 3.3280439]</t>
   </si>
   <si>
@@ -368,7 +296,76 @@
     <t>Glicerol</t>
   </si>
   <si>
-    <t>0.96645546,</t>
+    <t>H(dY) =  [2.9993417, 2.3486402, 3.1703768, 2.6131282, 2.7220032, 2.7921841, 2.447823, 2.7801964]</t>
+  </si>
+  <si>
+    <t>H(dY|dlogOD) =  [2.2018914, 1.5518432, 2.2740319, 1.5108654, 1.8836658, 1.8587232, 1.8748384, 1.7511928]</t>
+  </si>
+  <si>
+    <t>H(dY|dC) =  [1.7178407, 1.5122523, 1.3161864, 1.387619, 1.3985803, 1.6759751, 1.4622121, 1.6596951]</t>
+  </si>
+  <si>
+    <t>H(dY|dR) =  [1.5273328, 1.21668, 1.2818291, 1.3511171, 1.3283622, 1.4773493, 1.2879255, 1.3596346]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dlogOD) =  [1.2872753, 1.1263428, 1.0244832, 0.87467957, 1.121007, 1.1817727, 1.0932093, 1.0976524]</t>
+  </si>
+  <si>
+    <t>H(dY|dR,dlogOD) =  [1.0896001, 0.84858274, 1.0063553, 0.83791828, 0.96980381, 0.95406675, 0.9340992, 0.79944801]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR) =  [1.2531028, 0.86321926, 1.0367315, 0.84769917, 1.1092143, 0.94129705, 1.1316638, 0.8383708]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR,dlogOD) =  [0.86987162, 0.5975914, 0.75656414, 0.56460762, 0.76245403, 0.60580492, 0.73879623, 0.52270079]</t>
+  </si>
+  <si>
+    <t>H(dR) =  [2.8437486, 2.1776111, 2.8373542, 2.3644564, 2.9050019, 2.6141191, 2.481173, 2.5438988]</t>
+  </si>
+  <si>
+    <t>H(dR|dlogOD) =  [2.1768761, 1.4628136, 2.006273, 1.4883091, 2.0747969, 1.8537641, 1.8972981, 1.5750692]</t>
+  </si>
+  <si>
+    <t>H(dR|dC) =  [1.5632982, 1.4746823, 1.068506, 1.2939367, 1.3914015, 1.6677725, 1.2599909, 1.4715695]</t>
+  </si>
+  <si>
+    <t>H(dR|dY) =  [1.3717396, 1.0456502, 0.94880676, 1.1024451, 1.5113609, 1.2992842, 1.321275, 1.1233366]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dlogOD) =  [1.243587, 1.074873, 0.82793427, 0.85799408, 1.1957703, 1.2030282, 1.0111814, 1.0111165]</t>
+  </si>
+  <si>
+    <t>H(dR|dY,dlogOD) =  [1.0645852, 0.75955343, 0.73859787, 0.81536245, 1.1609344, 0.94910812, 0.95655918, 0.62332439]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY) =  [1.0985603, 0.82564926, 0.78905058, 0.75401688, 1.1020355, 0.93309498, 0.92944241, 0.65024519]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY,dlogOD) =  [0.82618284, 0.54612207, 0.5600152, 0.54792213, 0.83721733, 0.62705994, 0.65676832, 0.43616486]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [2.5512013, 2.4090645, 2.4090645, 2.959718, 2.837208, 2.8520172, 2.4162652, 2.7412863]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [1.8322906, 1.4931793, 2.0220041, 1.9201133, 1.75583, 1.7983661, 1.705869, 1.5425308]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [1.5632982, 1.4746823, 1.068506, 1.2939367, 1.3914015, 1.6677725, 1.2599909, 1.4715695]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [1.2697003, 1.5726769, 1.0270321, 1.7342086, 1.5137851, 1.7358072, 1.430654, 1.620785]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.91767502, 1.0676785, 0.77245522, 1.2839265, 0.99317026, 1.1214166, 0.92424059, 0.88898897]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.89900112, 1.1052384, 0.84366417, 1.2897978, 0.87680292, 1.1476297, 0.81975317, 0.97857714]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.99652147, 1.3526759, 0.86727619, 1.3857803, 1.1044598, 1.3696179, 1.0388215, 1.1476934]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.67927313, 0.85424757, 0.59387302, 1.0164871, 0.66945314, 0.79936838, 0.62444973, 0.70182943]</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F5E12-537C-41A3-A8D4-EACBBF016BEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -968,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -976,42 +973,42 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -1019,86 +1016,87 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1114,122 +1112,122 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1249,122 +1247,122 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1374,17 +1372,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P129"/>
+  <dimension ref="B4:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1392,117 +1390,153 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>3.6868265</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>2.9523028999999998</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>3.32463</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>3.6999002000000001</v>
       </c>
       <c r="G13">
         <v>2.611618</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>3.0725625000000001</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>2.5636000999999999</v>
       </c>
       <c r="N13">
         <v>3.1162421999999999</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>3.3249848000000002</v>
@@ -1510,6 +1544,9 @@
       <c r="E14">
         <v>3.4138663</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>3.2261755000000001</v>
       </c>
@@ -1517,7 +1554,7 @@
         <v>3.2762470000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K14">
         <v>3.0725625000000001</v>
@@ -1525,6 +1562,9 @@
       <c r="L14">
         <v>3.5538677999999999</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="N14">
         <v>3.1159846999999998</v>
       </c>
@@ -1534,39 +1574,45 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>3.0426457</v>
+        <v>2.9993417</v>
       </c>
       <c r="E15">
-        <v>3.3926775</v>
+        <v>3.1703768000000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2.8373368000000001</v>
+        <v>2.7220032000000001</v>
       </c>
       <c r="H15">
-        <v>2.5653386</v>
+        <v>2.4478230000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>2.2455780999999999</v>
+        <v>2.3486402000000002</v>
       </c>
       <c r="L15">
-        <v>2.2579639</v>
+        <v>2.6131281999999998</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.5135345</v>
+        <v>2.7921841000000001</v>
       </c>
       <c r="O15">
-        <v>2.8198614000000002</v>
+        <v>2.7801963999999999</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>3.6274818999999998</v>
@@ -1574,6 +1620,9 @@
       <c r="E16">
         <v>3.3818765000000002</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>3.4130273</v>
       </c>
@@ -1581,7 +1630,7 @@
         <v>3.2408483000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>3.2848525</v>
@@ -1589,6 +1638,9 @@
       <c r="L16">
         <v>3.8566346</v>
       </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="N16">
         <v>3.7915909000000001</v>
       </c>
@@ -1598,15 +1650,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -1614,117 +1666,153 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>2.2272449000000001</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K27">
         <v>2.1128271000000001</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>2.3952298000000001</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>3.0430126</v>
       </c>
       <c r="G28">
         <v>2.1665038999999999</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K28">
         <v>2.0611622000000001</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
         <v>2.1859004</v>
       </c>
       <c r="N28">
         <v>2.4417675000000001</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>2.8734679000000001</v>
@@ -1732,6 +1820,9 @@
       <c r="E29">
         <v>2.1400399000000001</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
         <v>2.5272440999999999</v>
       </c>
@@ -1739,7 +1830,7 @@
         <v>2.8029795000000002</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K29">
         <v>2.6842576999999999</v>
@@ -1747,6 +1838,9 @@
       <c r="L29">
         <v>2.4107509</v>
       </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <v>2.0361427999999999</v>
       </c>
@@ -1756,39 +1850,45 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>2.1400663999999998</v>
+        <v>2.2018914000000001</v>
       </c>
       <c r="E30">
-        <v>2.3827207000000001</v>
+        <v>2.2740319000000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>2.3317424999999998</v>
+        <v>1.8836657999999999</v>
       </c>
       <c r="H30">
-        <v>1.8640570999999999</v>
+        <v>1.8748384</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>1.4097252</v>
+        <v>1.5518432</v>
       </c>
       <c r="L30">
-        <v>1.2113509</v>
+        <v>1.5108653999999999</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>2.0905225000000001</v>
+        <v>1.8587232</v>
       </c>
       <c r="O30">
-        <v>1.6784285999999999</v>
+        <v>1.7511928000000001</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>2.5340986000000001</v>
@@ -1796,6 +1896,9 @@
       <c r="E31">
         <v>2.6222324000000001</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="G31">
         <v>2.6281948000000002</v>
       </c>
@@ -1803,7 +1906,7 @@
         <v>2.4999402000000002</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K31">
         <v>2.1532496999999999</v>
@@ -1811,6 +1914,9 @@
       <c r="L31">
         <v>2.9872879999999999</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
       <c r="N31">
         <v>2.5545906999999999</v>
       </c>
@@ -1820,15 +1926,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1836,117 +1942,153 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N41" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>1.6220665000000001</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K42">
         <v>1.8281392999999999</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>1.9784975</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43">
         <v>2.3189638000000001</v>
       </c>
       <c r="G43">
         <v>1.6248864999999999</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K43">
         <v>1.986707</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="M43">
         <v>1.7577152</v>
       </c>
       <c r="N43">
         <v>1.9911094</v>
       </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1.9787551999999999</v>
@@ -1954,6 +2096,9 @@
       <c r="E44">
         <v>1.5687692</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>2.1238966000000001</v>
       </c>
@@ -1961,7 +2106,7 @@
         <v>1.9347668</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K44">
         <v>1.986707</v>
@@ -1969,6 +2114,9 @@
       <c r="L44">
         <v>2.0137303000000002</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
       <c r="N44">
         <v>1.9903808000000001</v>
       </c>
@@ -1978,39 +2126,45 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>1.5686808000000001</v>
+        <v>1.7178407</v>
       </c>
       <c r="E45">
-        <v>1.3049390000000001</v>
+        <v>1.3161864000000001</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.3414214</v>
+        <v>1.3985803000000001</v>
       </c>
       <c r="H45">
-        <v>1.3625252000000001</v>
+        <v>1.4622120999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>1.3189023</v>
+        <v>1.5122523000000001</v>
       </c>
       <c r="L45">
-        <v>1.0087820999999999</v>
+        <v>1.3876189999999999</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1.4559321000000001</v>
+        <v>1.6759751000000001</v>
       </c>
       <c r="O45">
-        <v>1.5713166999999999</v>
+        <v>1.6596951</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>2.0436766</v>
@@ -2018,6 +2172,9 @@
       <c r="E46">
         <v>2.0655730000000001</v>
       </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="G46">
         <v>2.1858170000000001</v>
       </c>
@@ -2025,7 +2182,7 @@
         <v>1.8588305000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K46">
         <v>2.3467584000000001</v>
@@ -2033,6 +2190,9 @@
       <c r="L46">
         <v>2.4452145000000001</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>3.0764990000000001</v>
       </c>
@@ -2042,15 +2202,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2058,117 +2218,153 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N56" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O56" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>1.3754282</v>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K57">
         <v>1.422852</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D58">
         <v>2.1445785000000002</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>1.9849317</v>
       </c>
       <c r="G58">
         <v>1.6445751</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K58">
         <v>1.8714093999999999</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
       <c r="M58">
         <v>1.6097710000000001</v>
       </c>
       <c r="N58">
         <v>2.0348122000000002</v>
       </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>2.1453435000000001</v>
@@ -2176,6 +2372,9 @@
       <c r="E59">
         <v>1.3245827999999999</v>
       </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="G59">
         <v>2.1971364000000002</v>
       </c>
@@ -2183,7 +2382,7 @@
         <v>1.7359374000000001</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K59">
         <v>1.9129039999999999</v>
@@ -2191,6 +2390,9 @@
       <c r="L59">
         <v>1.9130837999999999</v>
       </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>2.0346174000000001</v>
       </c>
@@ -2200,39 +2402,45 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D60">
-        <v>1.4800207999999999</v>
+        <v>1.5273327999999999</v>
       </c>
       <c r="E60">
-        <v>1.3421361000000001</v>
+        <v>1.2818290999999999</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1.2145387999999999</v>
+        <v>1.3283621999999999</v>
       </c>
       <c r="H60">
-        <v>1.1543987</v>
+        <v>1.2879255000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K60">
-        <v>1.1434586</v>
+        <v>1.21668</v>
       </c>
       <c r="L60">
-        <v>1.1461475000000001</v>
+        <v>1.3511171</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1.3952260000000001</v>
+        <v>1.4773493</v>
       </c>
       <c r="O60">
-        <v>1.3739189999999999</v>
+        <v>1.3596345999999999</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D61">
         <v>1.4154834999999999</v>
@@ -2240,6 +2448,9 @@
       <c r="E61">
         <v>1.4935305000000001</v>
       </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="G61">
         <v>1.8658702</v>
       </c>
@@ -2247,7 +2458,7 @@
         <v>1.7805407</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K61">
         <v>1.4787672000000001</v>
@@ -2255,6 +2466,9 @@
       <c r="L61">
         <v>1.8923513999999999</v>
       </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
       <c r="N61">
         <v>1.7118878</v>
       </c>
@@ -2264,15 +2478,15 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -2280,117 +2494,153 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L72" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M72" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N72" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D73">
         <v>1.0280132</v>
       </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
       <c r="J73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K73">
         <v>1.1236390999999999</v>
       </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D74">
         <v>1.1861896999999999</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
       <c r="F74">
         <v>1.4565253</v>
       </c>
       <c r="G74">
         <v>1.1591777999999999</v>
       </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
       <c r="J74" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K74">
         <v>1.3209124000000001</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="M74">
         <v>1.3112855000000001</v>
       </c>
       <c r="N74">
         <v>1.3607798</v>
       </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <v>1.3138156000000001</v>
@@ -2398,6 +2648,9 @@
       <c r="E75">
         <v>1.0536036</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="G75">
         <v>1.5214772000000001</v>
       </c>
@@ -2405,7 +2658,7 @@
         <v>1.3358798000000001</v>
       </c>
       <c r="J75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K75">
         <v>1.4879583999999999</v>
@@ -2413,6 +2666,9 @@
       <c r="L75">
         <v>1.2719716999999999</v>
       </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
       <c r="N75">
         <v>1.2671576</v>
       </c>
@@ -2422,39 +2678,45 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D76">
-        <v>1.1143045</v>
+        <v>1.2872752999999999</v>
       </c>
       <c r="E76">
-        <v>0.99505376999999995</v>
+        <v>1.0244831999999999</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.93853617</v>
+        <v>1.1210070000000001</v>
       </c>
       <c r="H76">
-        <v>0.99143886999999997</v>
+        <v>1.0932093000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K76">
-        <v>0.97693490999999999</v>
+        <v>1.1263428</v>
       </c>
       <c r="L76">
-        <v>0.74829292000000003</v>
+        <v>0.87467956999999996</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>1.0722437</v>
+        <v>1.1817727</v>
       </c>
       <c r="O76">
-        <v>1.0407004</v>
+        <v>1.0976524000000001</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D77">
         <v>1.2770319000000001</v>
@@ -2462,6 +2724,9 @@
       <c r="E77">
         <v>1.2431512</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77">
         <v>1.3158436</v>
       </c>
@@ -2469,7 +2734,7 @@
         <v>1.2656521999999999</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K77">
         <v>1.1107163</v>
@@ -2477,6 +2742,9 @@
       <c r="L77">
         <v>1.5996537</v>
       </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
       <c r="N77">
         <v>1.9521503</v>
       </c>
@@ -2486,681 +2754,840 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>110</v>
-      </c>
-      <c r="J85" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H86" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" t="s">
-        <v>108</v>
-      </c>
-      <c r="K86" t="s">
-        <v>101</v>
-      </c>
-      <c r="L86" t="s">
-        <v>105</v>
-      </c>
-      <c r="M86" t="s">
-        <v>103</v>
-      </c>
-      <c r="N86" t="s">
-        <v>106</v>
-      </c>
-      <c r="O86" t="s">
-        <v>107</v>
-      </c>
-      <c r="P86" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="J86" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87">
-        <v>0.74088478000000002</v>
-      </c>
-      <c r="J87" t="s">
-        <v>101</v>
-      </c>
-      <c r="K87">
-        <v>0.83678912999999999</v>
+      <c r="D87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" t="s">
+        <v>81</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" t="s">
+        <v>77</v>
+      </c>
+      <c r="L87" t="s">
+        <v>81</v>
+      </c>
+      <c r="M87" t="s">
+        <v>79</v>
+      </c>
+      <c r="N87" t="s">
+        <v>82</v>
+      </c>
+      <c r="O87" t="s">
+        <v>83</v>
+      </c>
+      <c r="P87" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D88">
-        <v>1.368619</v>
+        <v>0.74088478000000002</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.2835307</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1.1740569999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K88">
-        <v>1.1952442999999999</v>
+        <v>0.83678912999999999</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>1.2118211000000001</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>1.3659505999999999</v>
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D89">
-        <v>1.6036606</v>
+        <v>1.368619</v>
       </c>
       <c r="E89">
-        <v>0.88003063000000004</v>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1.2835307</v>
       </c>
       <c r="G89">
-        <v>1.5870776</v>
+        <v>1.1740569999999999</v>
       </c>
       <c r="H89">
-        <v>1.1972742000000001</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K89">
-        <v>1.4804807</v>
+        <v>1.1952442999999999</v>
       </c>
       <c r="L89">
-        <v>1.1509719</v>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1.2118211000000001</v>
       </c>
       <c r="N89">
-        <v>1.1652073999999999</v>
+        <v>1.3659505999999999</v>
       </c>
       <c r="O89">
-        <v>1.1096811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D90">
-        <v>1.0248565999999999</v>
+        <v>1.6036606</v>
       </c>
       <c r="E90">
-        <v>1.0213232000000001</v>
+        <v>0.88003063000000004</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.86462879000000004</v>
+        <v>1.5870776</v>
       </c>
       <c r="H90">
-        <v>0.85319376000000002</v>
+        <v>1.1972742000000001</v>
       </c>
       <c r="J90" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K90">
-        <v>0.74641274999999996</v>
+        <v>1.4804807</v>
       </c>
       <c r="L90">
-        <v>0.76984357999999997</v>
+        <v>1.1509719</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>1.0434861</v>
+        <v>1.1652073999999999</v>
       </c>
       <c r="O90">
-        <v>0.81096458000000005</v>
+        <v>1.1096811</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D91">
-        <v>0.84959077999999999</v>
+        <v>1.0896001</v>
       </c>
       <c r="E91">
-        <v>0.90944910000000001</v>
+        <v>1.0063553000000001</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1.0754060999999999</v>
+        <v>0.96980381000000004</v>
       </c>
       <c r="H91">
-        <v>1.1437869000000001</v>
+        <v>0.93409920000000002</v>
       </c>
       <c r="J91" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K91">
-        <v>0.83996534</v>
+        <v>0.84858274</v>
       </c>
       <c r="L91">
-        <v>1.1551317999999999</v>
+        <v>0.83791828000000002</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>0.84299564000000005</v>
+        <v>0.95406674999999996</v>
       </c>
       <c r="O91">
-        <v>1.1484985000000001</v>
+        <v>0.79944800999999999</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="D92">
+        <v>0.84959077999999999</v>
+      </c>
+      <c r="E92">
+        <v>0.90944910000000001</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1.0754060999999999</v>
+      </c>
+      <c r="H92">
+        <v>1.1437869000000001</v>
       </c>
       <c r="J92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="K92">
+        <v>0.83996534</v>
+      </c>
+      <c r="L92">
+        <v>1.1551317999999999</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0.84299564000000005</v>
+      </c>
+      <c r="O92">
+        <v>1.1484985000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="J93" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>110</v>
-      </c>
-      <c r="J101" t="s">
-        <v>111</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" t="s">
-        <v>105</v>
-      </c>
-      <c r="F102" t="s">
-        <v>103</v>
-      </c>
-      <c r="G102" t="s">
-        <v>106</v>
-      </c>
-      <c r="H102" t="s">
-        <v>107</v>
-      </c>
-      <c r="I102" t="s">
-        <v>108</v>
-      </c>
-      <c r="K102" t="s">
-        <v>101</v>
-      </c>
-      <c r="L102" t="s">
-        <v>105</v>
-      </c>
-      <c r="M102" t="s">
-        <v>103</v>
-      </c>
-      <c r="N102" t="s">
-        <v>106</v>
-      </c>
-      <c r="O102" t="s">
-        <v>107</v>
-      </c>
-      <c r="P102" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="J102" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103">
-        <v>0.84694433000000002</v>
-      </c>
-      <c r="J103" t="s">
-        <v>101</v>
-      </c>
-      <c r="K103">
-        <v>0.74169969999999996</v>
+      <c r="D103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s">
+        <v>84</v>
+      </c>
+      <c r="K103" t="s">
+        <v>77</v>
+      </c>
+      <c r="L103" t="s">
+        <v>81</v>
+      </c>
+      <c r="M103" t="s">
+        <v>79</v>
+      </c>
+      <c r="N103" t="s">
+        <v>82</v>
+      </c>
+      <c r="O103" t="s">
+        <v>83</v>
+      </c>
+      <c r="P103" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D104">
-        <v>1.3442144</v>
+        <v>0.84694433000000002</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.147737</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1.1353587999999999</v>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K104">
-        <v>1.1511941000000001</v>
+        <v>0.74169969999999996</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>0.96796894</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>1.1729039999999999</v>
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D105">
-        <v>1.3444723999999999</v>
+        <v>1.3442144</v>
       </c>
       <c r="E105">
-        <v>0.97523499000000002</v>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1.147737</v>
       </c>
       <c r="G105">
-        <v>1.5719824</v>
+        <v>1.1353587999999999</v>
       </c>
       <c r="H105">
-        <v>1.0822806</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K105">
-        <v>1.1644592</v>
+        <v>1.1511941000000001</v>
       </c>
       <c r="L105">
-        <v>1.1145944999999999</v>
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0.96796894</v>
       </c>
       <c r="N105">
         <v>1.1729039999999999</v>
       </c>
       <c r="O105">
-        <v>0.87402964000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D106">
-        <v>1.1871290000000001</v>
+        <v>1.3444723999999999</v>
       </c>
       <c r="E106">
-        <v>1.0633602</v>
+        <v>0.97523499000000002</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>1.0123749</v>
+        <v>1.5719824</v>
       </c>
       <c r="H106">
-        <v>0.98450875000000004</v>
+        <v>1.0822806</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K106">
-        <v>0.77943087</v>
+        <v>1.1644592</v>
       </c>
       <c r="L106">
-        <v>0.75325631999999998</v>
+        <v>1.1145944999999999</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0.92562102999999996</v>
+        <v>1.1729039999999999</v>
       </c>
       <c r="O106">
-        <v>0.84766912000000005</v>
+        <v>0.87402964000000005</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D107">
-        <v>1.0285883</v>
+        <v>1.2531028</v>
       </c>
       <c r="E107">
-        <v>1.124568</v>
+        <v>1.0367314999999999</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1.4503455000000001</v>
+        <v>1.1092143000000001</v>
       </c>
       <c r="H107">
-        <v>1.2528872</v>
+        <v>1.1316638000000001</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K107">
-        <v>0.87937832000000005</v>
+        <v>0.86321926000000004</v>
       </c>
       <c r="L107">
-        <v>1.1614842000000001</v>
+        <v>0.84769916999999995</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>1.3714576000000001</v>
+        <v>0.94129704999999997</v>
       </c>
       <c r="O107">
-        <v>1.0632706000000001</v>
+        <v>0.83837079999999997</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="D108">
+        <v>1.0285883</v>
+      </c>
+      <c r="E108">
+        <v>1.124568</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1.4503455000000001</v>
+      </c>
+      <c r="H108">
+        <v>1.2528872</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+      <c r="K108">
+        <v>0.87937832000000005</v>
+      </c>
+      <c r="L108">
+        <v>1.1614842000000001</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1.3714576000000001</v>
+      </c>
+      <c r="O108">
+        <v>1.0632706000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="J109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>110</v>
-      </c>
-      <c r="J117" t="s">
-        <v>111</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E118" t="s">
-        <v>105</v>
-      </c>
-      <c r="F118" t="s">
-        <v>103</v>
-      </c>
-      <c r="G118" t="s">
-        <v>106</v>
-      </c>
-      <c r="H118" t="s">
-        <v>107</v>
-      </c>
-      <c r="I118" t="s">
-        <v>108</v>
-      </c>
-      <c r="K118" t="s">
-        <v>101</v>
-      </c>
-      <c r="L118" t="s">
-        <v>105</v>
-      </c>
-      <c r="M118" t="s">
-        <v>103</v>
-      </c>
-      <c r="N118" t="s">
-        <v>106</v>
-      </c>
-      <c r="O118" t="s">
-        <v>107</v>
-      </c>
-      <c r="P118" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="J118" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D119">
-        <v>0.49553299000000001</v>
-      </c>
-      <c r="J119" t="s">
-        <v>101</v>
-      </c>
-      <c r="K119">
-        <v>0.36818218000000003</v>
+      <c r="D119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I119" t="s">
+        <v>84</v>
+      </c>
+      <c r="K119" t="s">
+        <v>77</v>
+      </c>
+      <c r="L119" t="s">
+        <v>81</v>
+      </c>
+      <c r="M119" t="s">
+        <v>79</v>
+      </c>
+      <c r="N119" t="s">
+        <v>82</v>
+      </c>
+      <c r="O119" t="s">
+        <v>83</v>
+      </c>
+      <c r="P119" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D120">
-        <v>0.82133579000000001</v>
+        <v>0.49553299000000001</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.62509632000000004</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.78503369999999995</v>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K120">
-        <v>0.79041958000000001</v>
+        <v>0.36818218000000003</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>0.63567209000000002</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>0.78588152</v>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D121">
-        <v>0.85749531000000001</v>
+        <v>0.82133579000000001</v>
       </c>
       <c r="E121">
-        <v>0.66239977000000005</v>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0.62509632000000004</v>
       </c>
       <c r="G121">
-        <v>1.1032586</v>
+        <v>0.78503369999999995</v>
       </c>
       <c r="H121">
-        <v>0.72142649000000003</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K121">
-        <v>0.87028837000000003</v>
+        <v>0.79041958000000001</v>
       </c>
       <c r="L121">
-        <v>0.67187786000000005</v>
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0.63567209000000002</v>
       </c>
       <c r="N121">
-        <v>0.71197127999999998</v>
+        <v>0.78588152</v>
       </c>
       <c r="O121">
-        <v>0.51923942999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D122">
-        <v>0.79261636999999996</v>
+        <v>0.85749531000000001</v>
       </c>
       <c r="E122">
-        <v>0.75323963000000005</v>
+        <v>0.66239977000000005</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0.62923717000000001</v>
+        <v>1.1032586</v>
       </c>
       <c r="H122">
-        <v>0.65560627000000005</v>
+        <v>0.72142649000000003</v>
       </c>
       <c r="J122" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K122">
-        <v>0.52115679000000004</v>
+        <v>0.87028837000000003</v>
       </c>
       <c r="L122">
-        <v>0.54185486000000005</v>
+        <v>0.67187786000000005</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>0.63848209</v>
+        <v>0.71197127999999998</v>
       </c>
       <c r="O122">
-        <v>0.54704808999999999</v>
+        <v>0.51923942999999995</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D123">
-        <v>0.54588985000000001</v>
+        <v>0.86987161999999996</v>
       </c>
       <c r="E123">
-        <v>0.58189391999999995</v>
+        <v>0.75656414000000005</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.72351741999999997</v>
+        <v>0.76245403</v>
       </c>
       <c r="H123">
-        <v>0.75269841999999998</v>
+        <v>0.73879623000000005</v>
       </c>
       <c r="J123" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K123">
-        <v>0.39556788999999998</v>
+        <v>0.59759139999999999</v>
       </c>
       <c r="L123">
-        <v>0.66778088000000002</v>
+        <v>0.56460761999999998</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>0.60336590000000001</v>
+        <v>0.60580491999999997</v>
       </c>
       <c r="O123">
-        <v>0.52017117000000002</v>
+        <v>0.52270079000000003</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="D124">
+        <v>0.54588985000000001</v>
+      </c>
+      <c r="E124">
+        <v>0.58189391999999995</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.72351741999999997</v>
+      </c>
+      <c r="H124">
+        <v>0.75269841999999998</v>
       </c>
       <c r="J124" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C126" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="K124">
+        <v>0.39556788999999998</v>
+      </c>
+      <c r="L124">
+        <v>0.66778088000000002</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0.60336590000000001</v>
+      </c>
+      <c r="O124">
+        <v>0.52017117000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="J125" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
@@ -3170,6 +3597,9 @@
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3180,15 +3610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P131"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121:O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -3196,117 +3626,153 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>3.6212411000000002</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>2.7301123</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>2.5908380000000002</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>3.5174804000000002</v>
       </c>
       <c r="G13">
         <v>2.5072336000000002</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>2.3645166999999998</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>2.1471577000000002</v>
       </c>
       <c r="N13">
         <v>2.2988092999999998</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>2.5900729</v>
@@ -3314,6 +3780,9 @@
       <c r="E14">
         <v>3.1140677999999999</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>2.5069756999999999</v>
       </c>
@@ -3321,7 +3790,7 @@
         <v>2.9480982</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K14">
         <v>2.7333189999999998</v>
@@ -3329,6 +3798,9 @@
       <c r="L14">
         <v>2.8883255000000001</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="N14">
         <v>2.2987460999999998</v>
       </c>
@@ -3338,39 +3810,45 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>2.9739578</v>
+        <v>2.8437486000000001</v>
       </c>
       <c r="E15">
-        <v>3.0699084000000001</v>
+        <v>2.8373542</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3.0520741999999998</v>
+        <v>2.9050018999999998</v>
       </c>
       <c r="H15">
-        <v>2.6547519999999998</v>
+        <v>2.4811730000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>2.1373327</v>
+        <v>2.1776111</v>
       </c>
       <c r="L15">
-        <v>2.0024226000000001</v>
+        <v>2.3644563999999999</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.3510572999999999</v>
+        <v>2.6141190999999999</v>
       </c>
       <c r="O15">
-        <v>2.6027960999999999</v>
+        <v>2.5438988</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>3.6696444000000001</v>
@@ -3378,6 +3856,9 @@
       <c r="E16">
         <v>3.6104311999999998</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>3.5452254000000001</v>
       </c>
@@ -3385,7 +3866,7 @@
         <v>3.4681134</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>3.1125357</v>
@@ -3393,6 +3874,9 @@
       <c r="L16">
         <v>3.4280287999999999</v>
       </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="N16">
         <v>3.3828163</v>
       </c>
@@ -3402,15 +3886,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -3418,117 +3902,153 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>2.2476845000000001</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K27">
         <v>1.9875195000000001</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>1.9222751</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>2.9365410999999999</v>
       </c>
       <c r="G28">
         <v>2.0840816000000002</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K28">
         <v>1.5675724</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
         <v>1.88957</v>
       </c>
       <c r="N28">
         <v>1.8728802</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>2.2637</v>
@@ -3536,6 +4056,9 @@
       <c r="E29">
         <v>1.9322271</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
         <v>1.8627495999999999</v>
       </c>
@@ -3543,7 +4066,7 @@
         <v>2.460537</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K29">
         <v>2.4045378999999998</v>
@@ -3551,6 +4074,9 @@
       <c r="L29">
         <v>1.9972681999999999</v>
       </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <v>1.5869823000000001</v>
       </c>
@@ -3560,39 +4086,45 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>2.1552880000000001</v>
+        <v>2.1768760999999999</v>
       </c>
       <c r="E30">
-        <v>2.0994060000000001</v>
+        <v>2.0062730000000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>2.5426047000000001</v>
+        <v>2.0747968999999999</v>
       </c>
       <c r="H30">
-        <v>1.8646058999999999</v>
+        <v>1.8972981</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>1.3965472999999999</v>
+        <v>1.4628136</v>
       </c>
       <c r="L30">
-        <v>1.1449893</v>
+        <v>1.4883090999999999</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1.9284692000000001</v>
+        <v>1.8537641</v>
       </c>
       <c r="O30">
-        <v>1.5176126999999999</v>
+        <v>1.5750691999999999</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>2.5408439999999999</v>
@@ -3600,6 +4132,9 @@
       <c r="E31">
         <v>2.6067095</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="G31">
         <v>2.7410931999999999</v>
       </c>
@@ -3607,7 +4142,7 @@
         <v>2.7236563999999999</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K31">
         <v>2.1060734000000001</v>
@@ -3615,6 +4150,9 @@
       <c r="L31">
         <v>2.7435303000000002</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
       <c r="N31">
         <v>2.4127941000000002</v>
       </c>
@@ -3624,15 +4162,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -3640,117 +4178,153 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N41" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>1.7415780999999999</v>
       </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K42">
         <v>1.9144828</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>1.6542678</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43">
         <v>2.2713725999999999</v>
       </c>
       <c r="G43">
         <v>1.5333958000000001</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K43">
         <v>1.5630085</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="M43">
         <v>1.5603279999999999</v>
       </c>
       <c r="N43">
         <v>1.5435791000000001</v>
       </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1.6542675</v>
@@ -3758,6 +4332,9 @@
       <c r="E44">
         <v>1.2929389</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>1.5333958000000001</v>
       </c>
@@ -3765,7 +4342,7 @@
         <v>1.8340452</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K44">
         <v>1.9235628</v>
@@ -3773,6 +4350,9 @@
       <c r="L44">
         <v>1.6812239</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
       <c r="N44">
         <v>1.5428504999999999</v>
       </c>
@@ -3782,39 +4362,45 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>1.4876437</v>
+        <v>1.5632982</v>
       </c>
       <c r="E45">
-        <v>1.0601242</v>
+        <v>1.068506</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.3742979</v>
+        <v>1.3914015</v>
       </c>
       <c r="H45">
-        <v>1.1973499999999999</v>
+        <v>1.2599909</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>1.3413975</v>
+        <v>1.4746823</v>
       </c>
       <c r="L45">
-        <v>0.95908307999999998</v>
+        <v>1.2939366999999999</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1.4463215</v>
+        <v>1.6677725000000001</v>
       </c>
       <c r="O45">
-        <v>1.4159752999999999</v>
+        <v>1.4715695</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>2.0571187000000002</v>
@@ -3822,6 +4408,9 @@
       <c r="E46">
         <v>2.1684576999999998</v>
       </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="G46">
         <v>1.8885434000000001</v>
       </c>
@@ -3829,7 +4418,7 @@
         <v>2.1641773999999998</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K46">
         <v>2.3164767999999998</v>
@@ -3837,6 +4426,9 @@
       <c r="L46">
         <v>2.2187252000000002</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>2.8051352999999999</v>
       </c>
@@ -3846,15 +4438,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -3862,117 +4454,153 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N56" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O56" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>1.3098428</v>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K57">
         <v>1.2006616999999999</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D58">
         <v>1.4107859</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>1.8025112000000001</v>
       </c>
       <c r="G58">
         <v>1.5401902000000001</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K58">
         <v>1.1633636999999999</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
       <c r="M58">
         <v>1.1933284</v>
       </c>
       <c r="N58">
         <v>1.2173792999999999</v>
       </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>1.4104311</v>
@@ -3980,6 +4608,9 @@
       <c r="E59">
         <v>1.0247850000000001</v>
       </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="G59">
         <v>1.4779365</v>
       </c>
@@ -3987,7 +4618,7 @@
         <v>1.4077883</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K59">
         <v>1.5736606</v>
@@ -3995,6 +4626,9 @@
       <c r="L59">
         <v>1.2475411999999999</v>
       </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>1.2173792999999999</v>
       </c>
@@ -4004,39 +4638,45 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D60">
-        <v>1.4113324</v>
+        <v>1.3717395999999999</v>
       </c>
       <c r="E60">
-        <v>1.0193667</v>
+        <v>0.94880675999999997</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1.429276</v>
+        <v>1.5113608999999999</v>
       </c>
       <c r="H60">
-        <v>1.2438118</v>
+        <v>1.321275</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K60">
-        <v>1.0352135</v>
+        <v>1.0456502000000001</v>
       </c>
       <c r="L60">
-        <v>0.89060592999999999</v>
+        <v>1.1024451</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1.2327486999999999</v>
+        <v>1.2992842</v>
       </c>
       <c r="O60">
-        <v>1.1568539</v>
+        <v>1.1233366</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D61">
         <v>1.4576458999999999</v>
@@ -4044,6 +4684,9 @@
       <c r="E61">
         <v>1.7220850000000001</v>
       </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="G61">
         <v>1.9980675999999999</v>
       </c>
@@ -4051,7 +4694,7 @@
         <v>2.0078065</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K61">
         <v>1.3064503999999999</v>
@@ -4059,6 +4702,9 @@
       <c r="L61">
         <v>1.4637450999999999</v>
       </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
       <c r="N61">
         <v>1.3031132000000001</v>
       </c>
@@ -4068,15 +4714,15 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -4084,117 +4730,153 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K72" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L72" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M72" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N72" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D73">
         <v>1.1032743</v>
       </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
       <c r="J73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K73">
         <v>0.97185469000000002</v>
       </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D74">
         <v>0.77808332000000002</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
       <c r="F74">
         <v>1.1094512999999999</v>
       </c>
       <c r="G74">
         <v>0.96233891999999999</v>
       </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
       <c r="J74" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K74">
         <v>0.73455714999999999</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="M74">
         <v>1.0297494</v>
       </c>
       <c r="N74">
         <v>0.96529102</v>
       </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <v>1.1047697000000001</v>
@@ -4202,6 +4884,9 @@
       <c r="E75">
         <v>0.85611439</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="G75">
         <v>0.98626183999999995</v>
       </c>
@@ -4209,7 +4894,7 @@
         <v>1.1452513</v>
       </c>
       <c r="J75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K75">
         <v>1.4648576</v>
@@ -4217,6 +4902,9 @@
       <c r="L75">
         <v>1.0027227000000001</v>
       </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
       <c r="N75">
         <v>0.98653221000000002</v>
       </c>
@@ -4226,39 +4914,45 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D76">
-        <v>1.1032743</v>
+        <v>1.243587</v>
       </c>
       <c r="E76">
-        <v>0.77808332000000002</v>
+        <v>0.82793426999999997</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1.1094512999999999</v>
+        <v>1.1957703</v>
       </c>
       <c r="H76">
-        <v>0.96233891999999999</v>
+        <v>1.0111813999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K76">
-        <v>0.97185469000000002</v>
+        <v>1.074873</v>
       </c>
       <c r="L76">
-        <v>0.73455714999999999</v>
+        <v>0.85799407999999999</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>1.0297494</v>
+        <v>1.2030282000000001</v>
       </c>
       <c r="O76">
-        <v>0.96529102</v>
+        <v>1.0111165</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D77">
         <v>1.2501764</v>
@@ -4266,6 +4960,9 @@
       <c r="E77">
         <v>1.3155961</v>
       </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77">
         <v>1.1956954</v>
       </c>
@@ -4273,7 +4970,7 @@
         <v>1.4292159</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K77">
         <v>1.1949487000000001</v>
@@ -4281,6 +4978,9 @@
       <c r="L77">
         <v>1.3878254999999999</v>
       </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
       <c r="N77">
         <v>1.8886274999999999</v>
       </c>
@@ -4290,15 +4990,15 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J78" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
@@ -4306,117 +5006,153 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K88" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M88" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N88" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O88" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <v>0.76132345000000001</v>
       </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
       <c r="J89" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K89">
         <v>0.71148157000000001</v>
       </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D90">
         <v>0.89566422000000001</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
       <c r="F90">
         <v>1.1770582000000001</v>
       </c>
       <c r="G90">
         <v>1.0916342999999999</v>
       </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
       <c r="J90" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K90">
         <v>0.70165443000000005</v>
       </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
       <c r="M90">
         <v>0.91549015</v>
       </c>
       <c r="N90">
         <v>0.79706286999999998</v>
       </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D91">
         <v>0.99389315</v>
@@ -4424,6 +5160,9 @@
       <c r="E91">
         <v>0.67221642000000004</v>
       </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
       <c r="G91">
         <v>0.92258357999999996</v>
       </c>
@@ -4431,7 +5170,7 @@
         <v>0.85483074000000003</v>
       </c>
       <c r="J91" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K91">
         <v>1.2007608000000001</v>
@@ -4439,6 +5178,9 @@
       <c r="L91">
         <v>0.73748921999999995</v>
       </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
       <c r="N91">
         <v>0.71604586000000003</v>
       </c>
@@ -4448,39 +5190,45 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D92">
-        <v>1.0400777000000001</v>
+        <v>1.0645852</v>
       </c>
       <c r="E92">
-        <v>0.73800801999999999</v>
+        <v>0.73859786999999999</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1.075491</v>
+        <v>1.1609343999999999</v>
       </c>
       <c r="H92">
-        <v>0.85374307999999999</v>
+        <v>0.95655917999999995</v>
       </c>
       <c r="J92" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K92">
-        <v>0.73323441</v>
+        <v>0.75955342999999997</v>
       </c>
       <c r="L92">
-        <v>0.70348166999999995</v>
+        <v>0.81536244999999996</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>0.88143252999999999</v>
+        <v>0.94910812</v>
       </c>
       <c r="O92">
-        <v>0.65014886999999999</v>
+        <v>0.62332438999999995</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D93">
         <v>0.85633658999999995</v>
@@ -4488,6 +5236,9 @@
       <c r="E93">
         <v>1.0307465</v>
       </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
       <c r="G93">
         <v>1.1883049000000001</v>
       </c>
@@ -4495,7 +5246,7 @@
         <v>1.3675036</v>
       </c>
       <c r="J93" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K93">
         <v>0.79278802999999998</v>
@@ -4503,6 +5254,9 @@
       <c r="L93">
         <v>0.77455377999999997</v>
       </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
       <c r="N93">
         <v>0.70119858000000002</v>
       </c>
@@ -4512,15 +5266,15 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -4528,117 +5282,153 @@
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F104" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I104" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L104" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M104" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N104" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O104" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" t="s">
-        <v>112</v>
+        <v>77</v>
+      </c>
+      <c r="D105">
+        <v>0.96645546000000004</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K105">
         <v>0.82804202999999998</v>
       </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D106">
         <v>1.0199852</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
       <c r="F106">
         <v>1.1001458</v>
       </c>
       <c r="G106">
         <v>1.0438681000000001</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K106">
         <v>0.72749567000000004</v>
       </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
       <c r="M106">
         <v>0.77058125</v>
       </c>
       <c r="N106">
         <v>0.72537373999999999</v>
       </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D107">
         <v>1.0199852</v>
@@ -4646,6 +5436,9 @@
       <c r="E107">
         <v>0.69940471999999998</v>
       </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
       <c r="G107">
         <v>0.98148155000000004</v>
       </c>
@@ -4653,7 +5446,7 @@
         <v>0.98155928000000003</v>
       </c>
       <c r="J107" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K107">
         <v>1.101315</v>
@@ -4661,6 +5454,9 @@
       <c r="L107">
         <v>0.7820878</v>
       </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
       <c r="N107">
         <v>0.72537373999999999</v>
       </c>
@@ -4670,39 +5466,45 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D108">
-        <v>1.1060915</v>
+        <v>1.0985602999999999</v>
       </c>
       <c r="E108">
-        <v>0.81854534000000001</v>
+        <v>0.78905057999999995</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1.0452513999999999</v>
+        <v>1.1020354999999999</v>
       </c>
       <c r="H108">
-        <v>0.81933403000000005</v>
+        <v>0.92944241000000005</v>
       </c>
       <c r="J108" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K108">
-        <v>0.80192565999999998</v>
+        <v>0.82564926000000005</v>
       </c>
       <c r="L108">
-        <v>0.70355796999999998</v>
+        <v>0.75401688</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>0.91601038000000001</v>
+        <v>0.93309498000000002</v>
       </c>
       <c r="O108">
-        <v>0.69232797999999995</v>
+        <v>0.65024519000000003</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D109">
         <v>1.0420294000000001</v>
@@ -4710,6 +5512,9 @@
       <c r="E109">
         <v>1.2274522999999999</v>
       </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
       <c r="G109">
         <v>1.1530719</v>
       </c>
@@ -4717,7 +5522,7 @@
         <v>1.5582342</v>
       </c>
       <c r="J109" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K109">
         <v>0.84909725000000003</v>
@@ -4725,6 +5530,9 @@
       <c r="L109">
         <v>0.93499469999999996</v>
       </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
       <c r="N109">
         <v>1.1000943000000001</v>
       </c>
@@ -4734,16 +5542,16 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
@@ -4751,117 +5559,153 @@
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J119" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H120" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I120" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K120" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L120" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M120" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N120" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O120" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D121">
         <v>0.50811434</v>
       </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
       <c r="J121" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K121">
         <v>0.37243651999999999</v>
       </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D122">
         <v>0.65213346000000005</v>
       </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
       <c r="F122">
         <v>0.65791893000000001</v>
       </c>
       <c r="G122">
         <v>0.67892741999999995</v>
       </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
       <c r="J122" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K122">
         <v>0.44430493999999998</v>
       </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
       <c r="M122">
         <v>0.47480678999999998</v>
       </c>
       <c r="N122">
         <v>0.47030591999999999</v>
       </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D123">
         <v>0.64844893999999997</v>
@@ -4869,6 +5713,9 @@
       <c r="E123">
         <v>0.46491002999999997</v>
       </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
       <c r="G123">
         <v>0.56804323000000001</v>
       </c>
@@ -4876,7 +5723,7 @@
         <v>0.53079748000000004</v>
       </c>
       <c r="J123" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K123">
         <v>0.84718609</v>
@@ -4884,6 +5731,9 @@
       <c r="L123">
         <v>0.40262890000000001</v>
       </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
       <c r="N123">
         <v>0.43134546000000001</v>
       </c>
@@ -4893,39 +5743,45 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D124">
-        <v>0.78158711999999997</v>
+        <v>0.82618283999999997</v>
       </c>
       <c r="E124">
-        <v>0.53626965999999998</v>
+        <v>0.56001520000000005</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0.80015278000000001</v>
+        <v>0.83721732999999998</v>
       </c>
       <c r="H124">
-        <v>0.62650633</v>
+        <v>0.65676831999999996</v>
       </c>
       <c r="J124" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K124">
-        <v>0.51607656000000002</v>
+        <v>0.54612207000000001</v>
       </c>
       <c r="L124">
-        <v>0.52811909000000001</v>
+        <v>0.54792213000000001</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>0.59598731999999999</v>
+        <v>0.62705993999999998</v>
       </c>
       <c r="O124">
-        <v>0.47163867999999998</v>
+        <v>0.43616485999999999</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D125">
         <v>0.51903438999999996</v>
@@ -4933,6 +5789,9 @@
       <c r="E125">
         <v>0.65433883999999998</v>
       </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
       <c r="G125">
         <v>0.60337019000000003</v>
       </c>
@@ -4940,7 +5799,7 @@
         <v>0.91626167000000003</v>
       </c>
       <c r="J125" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K125">
         <v>0.47980022</v>
@@ -4948,6 +5807,9 @@
       <c r="L125">
         <v>0.45595169000000002</v>
       </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
       <c r="N125">
         <v>0.53984261</v>
       </c>
@@ -4957,10 +5819,10 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J126" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
@@ -4984,15 +5846,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="O126" sqref="O126"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122:O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -5000,117 +5862,153 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>3.4334183</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>2.4110415000000001</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>2.4110415000000001</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>3.5676695999999999</v>
       </c>
       <c r="G13">
         <v>3.1937007999999998</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>2.6330903000000001</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>2.9162583</v>
       </c>
       <c r="N13">
         <v>2.8930823999999999</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>3.0311053000000001</v>
@@ -5118,6 +6016,9 @@
       <c r="E14">
         <v>2.6330904999999998</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
         <v>3.1937007999999998</v>
       </c>
@@ -5125,7 +6026,7 @@
         <v>3.0061879</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K14">
         <v>2.6330904999999998</v>
@@ -5133,6 +6034,9 @@
       <c r="L14">
         <v>3.3026748000000001</v>
       </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
       <c r="N14">
         <v>2.8938107</v>
       </c>
@@ -5142,39 +6046,45 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>2.7296204999999998</v>
+        <v>2.5512012999999998</v>
       </c>
       <c r="E15">
-        <v>2.3892562000000002</v>
+        <v>2.4090644999999999</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2.9778261000000001</v>
+        <v>2.837208</v>
       </c>
       <c r="H15">
-        <v>2.5965539999999998</v>
+        <v>2.4162651999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>2.3892562000000002</v>
+        <v>2.4090644999999999</v>
       </c>
       <c r="L15">
-        <v>2.4532175000000001</v>
+        <v>2.9597180000000001</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.7318983000000001</v>
+        <v>2.8520172000000001</v>
       </c>
       <c r="O15">
-        <v>2.6329646000000002</v>
+        <v>2.7412863000000001</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <v>3.5345018000000001</v>
@@ -5182,6 +6092,9 @@
       <c r="E16">
         <v>2.9905895999999998</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16">
         <v>3.3459412999999998</v>
       </c>
@@ -5189,7 +6102,7 @@
         <v>3.1765862</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>2.9905895999999998</v>
@@ -5197,6 +6110,9 @@
       <c r="L16">
         <v>3.4109473000000001</v>
       </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="N16">
         <v>1.9083713</v>
       </c>
@@ -5206,15 +6122,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -5222,117 +6138,153 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>1.9843177999999999</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K27">
         <v>1.7551114999999999</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>2.1478723999999998</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>2.9600138999999999</v>
       </c>
       <c r="G28">
         <v>2.5193004999999999</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K28">
         <v>1.6851432</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
         <v>2.4832914000000001</v>
       </c>
       <c r="N28">
         <v>2.1649826000000001</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>2.6012143999999999</v>
@@ -5340,6 +6292,9 @@
       <c r="E29">
         <v>1.8349872</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="G29">
         <v>2.2158216999999998</v>
       </c>
@@ -5347,7 +6302,7 @@
         <v>2.5201387</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K29">
         <v>2.2052719999999999</v>
@@ -5355,6 +6310,9 @@
       <c r="L29">
         <v>2.1788878</v>
       </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <v>1.8434938999999999</v>
       </c>
@@ -5364,39 +6322,45 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>1.9072201</v>
+        <v>1.8322906000000001</v>
       </c>
       <c r="E30">
-        <v>2.1201607999999998</v>
+        <v>2.0220041000000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>2.4154974999999999</v>
+        <v>1.75583</v>
       </c>
       <c r="H30">
-        <v>1.6711902999999999</v>
+        <v>1.7058690000000001</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K30">
-        <v>1.3824434000000001</v>
+        <v>1.4931793</v>
       </c>
       <c r="L30">
-        <v>1.4592670999999999</v>
+        <v>1.9201132999999999</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>2.3478848999999999</v>
+        <v>1.7983661</v>
       </c>
       <c r="O30">
-        <v>1.3879154</v>
+        <v>1.5425308</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>2.3880506000000001</v>
@@ -5404,6 +6368,9 @@
       <c r="E31">
         <v>2.360919</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="G31">
         <v>2.5967349999999998</v>
       </c>
@@ -5411,7 +6378,7 @@
         <v>2.3345115000000001</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K31">
         <v>2.2189708000000001</v>
@@ -5419,6 +6386,9 @@
       <c r="L31">
         <v>2.4168400999999999</v>
       </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
       <c r="N31">
         <v>1.3196983</v>
       </c>
@@ -5428,15 +6398,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -5444,117 +6414,153 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L42" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N42" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1.7415780999999999</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K43">
         <v>1.9144828</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1.6542678</v>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
       <c r="F44">
         <v>2.2713725999999999</v>
       </c>
       <c r="G44">
         <v>1.5333958000000001</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K44">
         <v>1.5630085</v>
       </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="M44">
         <v>1.5603279999999999</v>
       </c>
       <c r="N44">
         <v>1.5435791000000001</v>
       </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>1.6542675</v>
@@ -5562,6 +6568,9 @@
       <c r="E45">
         <v>1.2929389</v>
       </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
       <c r="G45">
         <v>1.5333958000000001</v>
       </c>
@@ -5569,7 +6578,7 @@
         <v>1.8340452</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K45">
         <v>1.9235628</v>
@@ -5577,6 +6586,9 @@
       <c r="L45">
         <v>1.6812239</v>
       </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
       <c r="N45">
         <v>1.5428504999999999</v>
       </c>
@@ -5586,39 +6598,45 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D46">
-        <v>1.4876437</v>
+        <v>1.5632982</v>
       </c>
       <c r="E46">
-        <v>1.0601242</v>
+        <v>1.068506</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1.3742979</v>
+        <v>1.3914015</v>
       </c>
       <c r="H46">
-        <v>1.1973499999999999</v>
+        <v>1.2599909</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K46">
-        <v>1.3413975</v>
+        <v>1.4746823</v>
       </c>
       <c r="L46">
-        <v>0.95908307999999998</v>
+        <v>1.2939366999999999</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1.4463215</v>
+        <v>1.6677725000000001</v>
       </c>
       <c r="O46">
-        <v>1.4159752999999999</v>
+        <v>1.4715695</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>2.0571187000000002</v>
@@ -5626,6 +6644,9 @@
       <c r="E47">
         <v>2.1684576999999998</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
       <c r="G47">
         <v>1.8885434000000001</v>
       </c>
@@ -5633,7 +6654,7 @@
         <v>2.1641773999999998</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K47">
         <v>2.3164767999999998</v>
@@ -5641,6 +6662,9 @@
       <c r="L47">
         <v>2.2187252000000002</v>
       </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
       <c r="N47">
         <v>2.8051352999999999</v>
       </c>
@@ -5650,15 +6674,15 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
@@ -5666,117 +6690,153 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L57" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M57" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N57" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>1.2556555</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K58">
         <v>1.4625807</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>1.0329769</v>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="F59">
         <v>1.4819108999999999</v>
       </c>
       <c r="G59">
         <v>1.3937404</v>
       </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K59">
         <v>1.204035</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
       <c r="M59">
         <v>1.6742954000000001</v>
       </c>
       <c r="N59">
         <v>1.3844204</v>
       </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D60">
         <v>1.6848752</v>
@@ -5784,6 +6844,9 @@
       <c r="E60">
         <v>1.2935524</v>
       </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
       <c r="G60">
         <v>2.0914223000000001</v>
       </c>
@@ -5791,7 +6854,7 @@
         <v>1.6647076999999999</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K60">
         <v>1.5472348</v>
@@ -5799,6 +6862,9 @@
       <c r="L60">
         <v>1.7625377</v>
       </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
       <c r="N60">
         <v>1.7682064</v>
       </c>
@@ -5808,39 +6874,45 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D61">
-        <v>1.2556555</v>
+        <v>1.2697003</v>
       </c>
       <c r="E61">
-        <v>1.0329769</v>
+        <v>1.0270321</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1.4819108999999999</v>
+        <v>1.5137851</v>
       </c>
       <c r="H61">
-        <v>1.3937404</v>
+        <v>1.4306540000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>1.4625807</v>
+        <v>1.5726769</v>
       </c>
       <c r="L61">
-        <v>1.204035</v>
+        <v>1.7342086000000001</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1.6742954000000001</v>
+        <v>1.7358072</v>
       </c>
       <c r="O61">
-        <v>1.3844204</v>
+        <v>1.6207849999999999</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D62">
         <v>1.9506965000000001</v>
@@ -5848,6 +6920,9 @@
       <c r="E62">
         <v>1.9431309999999999</v>
       </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
       <c r="G62">
         <v>2.1187307999999998</v>
       </c>
@@ -5855,7 +6930,7 @@
         <v>1.7945682999999999</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K62">
         <v>2.0524955</v>
@@ -5863,6 +6938,9 @@
       <c r="L62">
         <v>1.9995274999999999</v>
       </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
       <c r="N62">
         <v>1.193279</v>
       </c>
@@ -5872,15 +6950,15 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>20</v>
@@ -5888,117 +6966,150 @@
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L73" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M73" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N73" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O73" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P73" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>0.78508568000000001</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
       <c r="J74" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K74">
         <v>0.76592492999999995</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <v>0.93883132999999996</v>
       </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
       <c r="F75">
         <v>1.3735265999999999</v>
       </c>
       <c r="G75">
         <v>1.5119743000000001</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
       <c r="J75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K75">
         <v>0.94489288000000005</v>
       </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
       <c r="M75">
         <v>1.6086754999999999</v>
       </c>
       <c r="N75">
         <v>1.0839949</v>
       </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>1.0415626</v>
@@ -6006,6 +7117,9 @@
       <c r="E76">
         <v>0.74855185000000002</v>
       </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
       <c r="G76">
         <v>1.2100549</v>
       </c>
@@ -6013,7 +7127,7 @@
         <v>1.0530386</v>
       </c>
       <c r="J76" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K76">
         <v>1.0089722000000001</v>
@@ -6021,6 +7135,9 @@
       <c r="L76">
         <v>1.0401100999999999</v>
       </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
       <c r="N76">
         <v>1.0745087</v>
       </c>
@@ -6030,39 +7147,45 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D77">
-        <v>0.88145828000000004</v>
+        <v>0.91767502000000001</v>
       </c>
       <c r="E77">
-        <v>0.73249531000000001</v>
+        <v>0.77245522</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1.0222912</v>
+        <v>0.99317025999999997</v>
       </c>
       <c r="H77">
-        <v>0.79857254</v>
+        <v>0.92424059000000003</v>
       </c>
       <c r="J77" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K77">
-        <v>0.94965363000000003</v>
+        <v>1.0676785</v>
       </c>
       <c r="L77">
-        <v>0.99620914000000005</v>
+        <v>1.2839265</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>1.3296056000000001</v>
+        <v>1.1214166000000001</v>
       </c>
       <c r="O77">
-        <v>0.75018739999999995</v>
+        <v>0.88898896999999999</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D78">
         <v>1.1309823999999999</v>
@@ -6070,6 +7193,9 @@
       <c r="E78">
         <v>0.98183679999999995</v>
       </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
       <c r="G78">
         <v>1.2843846999999999</v>
       </c>
@@ -6077,7 +7203,7 @@
         <v>1.1002235</v>
       </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K78">
         <v>1.1764383</v>
@@ -6085,6 +7211,9 @@
       <c r="L78">
         <v>1.0292068000000001</v>
       </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
       <c r="N78">
         <v>0.71725749999999999</v>
       </c>
@@ -6094,15 +7223,15 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>21</v>
@@ -6110,117 +7239,153 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I89" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M89" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N89" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O89" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <v>0.77722835999999995</v>
       </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
       <c r="J90" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K90">
         <v>0.89548492000000002</v>
       </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D91">
         <v>1.2425828000000001</v>
       </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
       <c r="F91">
         <v>1.5128212000000001</v>
       </c>
       <c r="G91">
         <v>1.4882917</v>
       </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
       <c r="J91" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K91">
         <v>1.0923676</v>
       </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
       <c r="M91">
         <v>1.7441401000000001</v>
       </c>
       <c r="N91">
         <v>1.337307</v>
       </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D92">
         <v>1.4422836000000001</v>
@@ -6228,6 +7393,9 @@
       <c r="E92">
         <v>0.75887488999999997</v>
       </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
       <c r="G92">
         <v>1.3393345000000001</v>
       </c>
@@ -6235,7 +7403,7 @@
         <v>1.2048540000000001</v>
       </c>
       <c r="J92" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K92">
         <v>1.2655902000000001</v>
@@ -6243,6 +7411,9 @@
       <c r="L92">
         <v>1.1843433000000001</v>
       </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
       <c r="N92">
         <v>1.2430439</v>
       </c>
@@ -6252,39 +7423,45 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D93">
-        <v>0.85520744000000004</v>
+        <v>0.89900111999999999</v>
       </c>
       <c r="E93">
-        <v>0.79883957000000005</v>
+        <v>0.84366417000000005</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.98234414999999997</v>
+        <v>0.87680292000000004</v>
       </c>
       <c r="H93">
-        <v>0.76892327999999999</v>
+        <v>0.81975317000000003</v>
       </c>
       <c r="J93" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K93">
-        <v>0.95775127000000004</v>
+        <v>1.1052384</v>
       </c>
       <c r="L93">
-        <v>1.0488348000000001</v>
+        <v>1.2897978000000001</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>1.4491649</v>
+        <v>1.1476297</v>
       </c>
       <c r="O93">
-        <v>0.83559320000000004</v>
+        <v>0.97857713999999996</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D94">
         <v>1.0973820999999999</v>
@@ -6292,6 +7469,9 @@
       <c r="E94">
         <v>0.93298435000000002</v>
       </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
       <c r="G94">
         <v>1.0513368000000001</v>
       </c>
@@ -6299,7 +7479,7 @@
         <v>1.040071</v>
       </c>
       <c r="J94" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K94">
         <v>1.307847</v>
@@ -6307,6 +7487,9 @@
       <c r="L94">
         <v>1.1979561000000001</v>
       </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
       <c r="N94">
         <v>0.79553174999999998</v>
       </c>
@@ -6316,15 +7499,15 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J95" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>22</v>
@@ -6332,117 +7515,153 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J104" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G105" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I105" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K105" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L105" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M105" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N105" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O105" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D106">
         <v>1.0252714000000001</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K106">
         <v>0.91425942999999998</v>
       </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D107">
         <v>1.2944298000000001</v>
       </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
       <c r="F107">
         <v>1.4843678</v>
       </c>
       <c r="G107">
         <v>1.7106466</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
       <c r="J107" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K107">
         <v>1.1113667</v>
       </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
       <c r="M107">
         <v>1.6876268000000001</v>
       </c>
       <c r="N107">
         <v>1.2759442000000001</v>
       </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D108">
         <v>1.2944298000000001</v>
@@ -6450,6 +7669,9 @@
       <c r="E108">
         <v>0.96817207000000005</v>
       </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
       <c r="G108">
         <v>1.5949669</v>
       </c>
@@ -6457,7 +7679,7 @@
         <v>1.2384782000000001</v>
       </c>
       <c r="J108" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K108">
         <v>1.0748892000000001</v>
@@ -6465,6 +7687,9 @@
       <c r="L108">
         <v>1.2970843000000001</v>
       </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
       <c r="N108">
         <v>1.2762022</v>
       </c>
@@ -6474,39 +7699,45 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D109">
-        <v>0.95041465999999997</v>
+        <v>0.99652147000000002</v>
       </c>
       <c r="E109">
-        <v>0.83215475000000005</v>
+        <v>0.86727619</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1.0978855999999999</v>
+        <v>1.1044598000000001</v>
       </c>
       <c r="H109">
-        <v>0.96926212</v>
+        <v>1.0388215000000001</v>
       </c>
       <c r="J109" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K109">
-        <v>1.2292931</v>
+        <v>1.3526758999999999</v>
       </c>
       <c r="L109">
-        <v>1.0169876</v>
+        <v>1.3857803</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>1.3575565999999999</v>
+        <v>1.3696178999999999</v>
       </c>
       <c r="O109">
-        <v>0.91989398</v>
+        <v>1.1476934000000001</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D110">
         <v>1.5350804</v>
@@ -6514,6 +7745,9 @@
       <c r="E110">
         <v>1.4484987</v>
       </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
       <c r="G110">
         <v>1.2737346000000001</v>
       </c>
@@ -6521,7 +7755,7 @@
         <v>1.3449964999999999</v>
       </c>
       <c r="J110" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K110">
         <v>1.5951419</v>
@@ -6529,6 +7763,9 @@
       <c r="L110">
         <v>1.470777</v>
       </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
       <c r="N110">
         <v>0.99026060000000005</v>
       </c>
@@ -6538,16 +7775,16 @@
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>23</v>
@@ -6555,117 +7792,153 @@
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J120" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H121" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I121" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K121" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="L121" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M121" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N121" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O121" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="P121" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D122">
         <v>0.53187609000000002</v>
       </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
       <c r="J122" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="K122">
         <v>0.42687892999999999</v>
       </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D123">
         <v>0.69529962999999995</v>
       </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
       <c r="F123">
         <v>0.85438727999999997</v>
       </c>
       <c r="G123">
         <v>1.0992679999999999</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
       <c r="J123" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K123">
         <v>0.68754338999999998</v>
       </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
       <c r="M123">
         <v>1.1679926</v>
       </c>
       <c r="N123">
         <v>0.75723742999999999</v>
       </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D124">
         <v>0.69611835</v>
@@ -6673,6 +7946,9 @@
       <c r="E124">
         <v>0.54124450999999996</v>
       </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
       <c r="G124">
         <v>0.85551500000000003</v>
       </c>
@@ -6680,7 +7956,7 @@
         <v>0.72900580999999998</v>
       </c>
       <c r="J124" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K124">
         <v>0.65539932000000001</v>
@@ -6688,6 +7964,9 @@
       <c r="L124">
         <v>0.70524931000000002</v>
       </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
       <c r="N124">
         <v>0.78980826999999998</v>
       </c>
@@ -6697,39 +7976,45 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D125">
-        <v>0.62296772</v>
+        <v>0.67927313</v>
       </c>
       <c r="E125">
-        <v>0.53075695000000001</v>
+        <v>0.59387301999999997</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.74695349</v>
+        <v>0.66945314</v>
       </c>
       <c r="H125">
-        <v>0.57133531999999998</v>
+        <v>0.62444973000000004</v>
       </c>
       <c r="J125" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K125">
-        <v>0.73249578000000004</v>
+        <v>0.85424756999999996</v>
       </c>
       <c r="L125">
-        <v>0.82084703000000003</v>
+        <v>1.0164871</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>1.0441613000000001</v>
+        <v>0.79936837999999999</v>
       </c>
       <c r="O125">
-        <v>0.57167625</v>
+        <v>0.70182942999999998</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D126">
         <v>0.79368114000000001</v>
@@ -6737,6 +8022,9 @@
       <c r="E126">
         <v>0.60543060000000004</v>
       </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
       <c r="G126">
         <v>0.69944954000000004</v>
       </c>
@@ -6744,7 +8032,7 @@
         <v>0.64898204999999998</v>
       </c>
       <c r="J126" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K126">
         <v>0.86345004999999997</v>
@@ -6752,6 +8040,9 @@
       <c r="L126">
         <v>0.71060562000000005</v>
       </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
       <c r="N126">
         <v>0.55590152999999998</v>
       </c>
@@ -6761,10 +8052,10 @@
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J127" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
